--- a/tenderos.xlsx
+++ b/tenderos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40D71A-2939-4963-A64C-2AC2B730FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F39F2-4419-4E7E-9E91-81E754A82DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>image</t>
   </si>
@@ -194,6 +194,42 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPMTA5QB0ca4IRBCqfCIlkmgELsqHYw8zjmezIq4rWaiizDJWhXPVlUD6rszw0VNGHhCqzvEAWD1dwhRGj9OetxdwzyC6231Wxt4_uSAGGz4RTqqDIC9S6TN00IPnSh5fyDP72u6bKHx6idP2kP37hE=w600-h404-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>huevos, pizza, arroz</t>
+  </si>
+  <si>
+    <t>pasta, arroz, frutas</t>
+  </si>
+  <si>
+    <t>mango, dulces, pan</t>
+  </si>
+  <si>
+    <t>arina, trigo</t>
   </si>
 </sst>
 </file>
@@ -277,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,7 +328,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,12 +643,12 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="6"/>
-    <col min="5" max="5" width="42.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="19.42578125" style="1"/>
+    <col min="4" max="5" width="19.42578125" style="6"/>
+    <col min="6" max="6" width="42.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -626,32 +661,38 @@
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -665,19 +706,25 @@
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -691,19 +738,25 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -717,19 +770,25 @@
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>23456</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -743,19 +802,25 @@
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -769,19 +834,22 @@
         <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>23456</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -795,19 +863,22 @@
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5432</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -821,19 +892,22 @@
         <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>9876</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -847,19 +921,22 @@
         <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>56223</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -873,19 +950,22 @@
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -899,33 +979,34 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="4"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tenderos.xlsx
+++ b/tenderos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F39F2-4419-4E7E-9E91-81E754A82DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB42329-424C-4F0A-8AB4-500EBB0A0F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>image</t>
   </si>
@@ -230,6 +230,36 @@
   </si>
   <si>
     <t>arina, trigo</t>
+  </si>
+  <si>
+    <t>tienda1</t>
+  </si>
+  <si>
+    <t>tienda2</t>
+  </si>
+  <si>
+    <t>tienda3</t>
+  </si>
+  <si>
+    <t>tienda4</t>
+  </si>
+  <si>
+    <t>tienda5</t>
+  </si>
+  <si>
+    <t>tienda6</t>
+  </si>
+  <si>
+    <t>tienda7</t>
+  </si>
+  <si>
+    <t>tienda8</t>
+  </si>
+  <si>
+    <t>tienda9</t>
+  </si>
+  <si>
+    <t>tienda10</t>
   </si>
 </sst>
 </file>
@@ -632,381 +662,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="6"/>
-    <col min="6" max="6" width="42.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="19.42578125" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="6"/>
+    <col min="7" max="7" width="42.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>23456</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>23456</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>5432</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>9876</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>56223</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tenderos.xlsx
+++ b/tenderos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pantillas mini-Ecomerce\E-Plaza.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB42329-424C-4F0A-8AB4-500EBB0A0F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979A3304-EC69-443A-942E-A09CF906FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>image</t>
   </si>
@@ -61,24 +61,6 @@
     <t>tienda</t>
   </si>
   <si>
-    <t>señora 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">señora 2 </t>
-  </si>
-  <si>
-    <t>señora 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">señora 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">señora 4 </t>
-  </si>
-  <si>
-    <t>señora 5</t>
-  </si>
-  <si>
     <t>oferta</t>
   </si>
   <si>
@@ -260,6 +242,18 @@
   </si>
   <si>
     <t>tienda10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>ventas de joven eduar pocholin</t>
+  </si>
+  <si>
+    <t>edward quevedo</t>
   </si>
 </sst>
 </file>
@@ -343,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,7 +351,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +672,7 @@
     <col min="8" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -690,387 +683,374 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
         <v>23456</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
         <v>15</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23456</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1">
-        <v>23456</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
         <v>5432</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
         <v>9876</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>56223</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1">
-        <v>56223</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
